--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W15_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W15_H100_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5535168195718655</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9945054945054945</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006802721088435374</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.5531914893617021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7111984282907662</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.486322188449848</v>
+        <v>0.4741641337386018</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09462108675257365</v>
+        <v>0.1345514897350639</v>
       </c>
       <c r="J2" t="n">
-        <v>1213.137418645103</v>
+        <v>1790.400156534409</v>
       </c>
       <c r="K2" t="n">
-        <v>1899989.299138434</v>
+        <v>4236069.40005194</v>
       </c>
       <c r="L2" t="n">
-        <v>1378.400993593096</v>
+        <v>2058.171372857941</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6427604117612727</v>
+        <v>0.2035262046415511</v>
       </c>
     </row>
   </sheetData>
